--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T14:28:16+00:00</t>
+    <t>2024-10-23T09:28:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:28:54+00:00</t>
+    <t>2024-10-23T11:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:56:01+00:00</t>
+    <t>2024-10-24T13:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:00:46+00:00</t>
+    <t>2024-10-24T13:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:18:13+00:00</t>
+    <t>2024-10-24T13:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:44:09+00:00</t>
+    <t>2024-10-25T13:17:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T13:17:35+00:00</t>
+    <t>2024-10-25T13:48:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T13:48:38+00:00</t>
+    <t>2024-10-25T13:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T13:59:32+00:00</t>
+    <t>2024-10-28T17:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T17:17:54+00:00</t>
+    <t>2024-10-28T17:49:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T17:49:09+00:00</t>
+    <t>2024-10-29T11:09:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-29T11:09:41+00:00</t>
+    <t>2024-10-29T11:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-29T11:27:20+00:00</t>
+    <t>2024-10-31T09:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T09:13:17+00:00</t>
+    <t>2024-10-31T09:40:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T09:40:04+00:00</t>
+    <t>2024-10-31T09:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T09:57:10+00:00</t>
+    <t>2024-10-31T13:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
+++ b/feature/add-sos-narrative-content/ig/StructureDefinition-FrLocationAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T13:04:28+00:00</t>
+    <t>2024-11-04T17:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
